--- a/Excel Data/CFR_AccountToAccount.xlsx
+++ b/Excel Data/CFR_AccountToAccount.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/CFR_AccountToAccount.xlsx
+++ b/Excel Data/CFR_AccountToAccount.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CFR" sheetId="1" r:id="rId1"/>
+    <sheet name="CFR_Ibg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>CustomerType</t>
   </si>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,27 +492,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1007571384</v>
+      </c>
+      <c r="B2">
+        <v>1007589121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4220122482519</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20300303</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>73172876</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>19780416</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/CFR_AccountToAccount.xlsx
+++ b/Excel Data/CFR_AccountToAccount.xlsx
@@ -495,23 +495,23 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/Excel Data/CFR_AccountToAccount.xlsx
+++ b/Excel Data/CFR_AccountToAccount.xlsx
@@ -389,113 +389,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1007571384</v>
-      </c>
-      <c r="B2">
-        <v>1007589121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4220122482519</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20300303</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>73172876</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>19780416</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,5 +486,111 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1007571384</v>
+      </c>
+      <c r="B2">
+        <v>1007589121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4220122482519</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20300303</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>73172876</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>19780416</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/CFR_AccountToAccount.xlsx
+++ b/Excel Data/CFR_AccountToAccount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CFR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>CustomerType</t>
   </si>
@@ -68,6 +68,60 @@
   </si>
   <si>
     <t>NADEEM IHSAN</t>
+  </si>
+  <si>
+    <t>DEBIT.VALUE.DATE</t>
+  </si>
+  <si>
+    <t>DEBIT.THEIR.REF</t>
+  </si>
+  <si>
+    <t>CREDIT.VALUE.DATE</t>
+  </si>
+  <si>
+    <t>CREDIT.THEIR.REF</t>
+  </si>
+  <si>
+    <t>TREASURY.RATE</t>
+  </si>
+  <si>
+    <t>COMMISSION.CODE</t>
+  </si>
+  <si>
+    <t>COMMISSION.TYPE</t>
+  </si>
+  <si>
+    <t>COMMISSION.AMT</t>
+  </si>
+  <si>
+    <t>CUST.RATE</t>
+  </si>
+  <si>
+    <t>MKTG.EXCH.PROFIT</t>
+  </si>
+  <si>
+    <t>PAYMENT.DETAILS</t>
+  </si>
+  <si>
+    <t>AMOUNT.DEBITED</t>
+  </si>
+  <si>
+    <t>AMOUNT.CREDITED</t>
+  </si>
+  <si>
+    <t>AML.TYP.CUST</t>
+  </si>
+  <si>
+    <t>ID.TYPE</t>
+  </si>
+  <si>
+    <t>ID.NUMBER</t>
+  </si>
+  <si>
+    <t>ID.VAL.DT</t>
+  </si>
+  <si>
+    <t>A.REMARKS</t>
   </si>
 </sst>
 </file>
@@ -386,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,12 +457,13 @@
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -437,16 +492,70 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1007571384</v>
       </c>
@@ -474,13 +583,13 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>19780416</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -494,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
